--- a/CLOUD解决方案/电商跨境贸易解决方案/电商跨境贸易解决方案.xlsx
+++ b/CLOUD解决方案/电商跨境贸易解决方案/电商跨境贸易解决方案.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="解决方案架构说明" sheetId="1" r:id="rId1"/>
+    <sheet name="CDN" sheetId="2" r:id="rId2"/>
+    <sheet name="CND用户访问流程" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>云安全</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +116,1518 @@
   </si>
   <si>
     <t xml:space="preserve"> - SSA（安全态势感知服务）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>基础架构：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最简单的CDN网络由一个DNS服务器和几台缓存服务器组成：</t>
+    </r>
+  </si>
+  <si>
+    <t>1. 当用户点击网站页面上的内容URL，经过本地DNS系统解析，DNS系统会最终将域名的解析权交给CNAME指向的CDN专用DNS服务器。</t>
+  </si>
+  <si>
+    <t>2. CDN的DNS服务器将CDN的全局负载均衡设备IP地址返回用户。</t>
+  </si>
+  <si>
+    <t>3. 用户向CDN的全局负载均衡设备发起内容URL访问请求。</t>
+  </si>
+  <si>
+    <t>4. CDN全局负载均衡设备根据用户IP地址，以及用户请求的内容URL，选择一台用户所属区域的区域负载均衡设备，告诉用户向这台设备发起请求。</t>
+  </si>
+  <si>
+    <t>5. 区域负载均衡设备会为用户选择一台合适的缓存服务器提供服务，选择的依据包括：根据用户IP地址，判断哪一台服务器距用户最近；根据用户所请求的URL中携带的内容名称，判断哪一台服务器上有用户所需内容；查询各个服务器当前的负载情况，判断哪一台服务器尚有服务能力。基于以上这些条件的综合分析之后，区域负载均衡设备会向全局负载均衡设备返回一台缓存服务器的IP地址。</t>
+  </si>
+  <si>
+    <t>6. 全局负载均衡设备把服务器的IP地址返回给用户。</t>
+  </si>
+  <si>
+    <t>举例说明：</t>
+  </si>
+  <si>
+    <t>国内访问量较高的网站、直播、视频平台，均使用CDN网络加速技术，虽然网站的访问巨大，但无论在什么地方访问都会感觉速度很快。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而一般的网站如果服务器在网通，电信用户访问很慢，如果服务器在电信，网通用户访问又很慢。</t>
+  </si>
+  <si>
+    <t>通过在现有的Internet中增加一层新的网络架构，将网站的内容发布到最接近用户的cache服务器内，通过DNS负载均衡的技术，判断用户来源就近访问cache服务器取得所需的内容，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决Internet网络拥塞状况，提高用户访问网站的响应速度，如同提供了多个分布在各地的加速器，以达到快速、可冗余的为多个网站加速的目的。</t>
+  </si>
+  <si>
+    <t>CDN服务最初用于确保快速可靠地分发静态内容，这些内容可以缓存，最适合在网速庞大的网络中存储和分发，该网络在几十多个国家的十几个网络中的覆盖CDN网络服务器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于动态内容必须通过互联网来传输，因此要提供快速的网络体验。如今的CDN可谓是大文件、小文件、点播、直播、动静皆宜！</t>
+  </si>
+  <si>
+    <t>Q &amp; A</t>
+  </si>
+  <si>
+    <t>1.CDN加速是对网站所在服务器加速，还是对其域名加速？</t>
+  </si>
+  <si>
+    <t>CDN是只对网站的某一个具体的域名加速。如果同一个网站有多个域名，则访客访问加入CDN的域名获得加速效果，访问未加入CDN的域名，或者直接访问IP地址，则无法获得CDN效果。</t>
+  </si>
+  <si>
+    <t>2.CDN和镜像站点比较有何优势？　　</t>
+  </si>
+  <si>
+    <t>CDN对网站的访客完全透明，不需要访客手动选择要访问的镜像站点，保证了网站对访客的友好性。　　</t>
+  </si>
+  <si>
+    <t>CDN对每个节点都有可用性检查，不合格的节点会第一时间剔出，从而保证了极高的可用率，而镜像站点无法实现这一点。　　</t>
+  </si>
+  <si>
+    <t>CDN部署简单，对原站基本不做任何改动即可生效。</t>
+  </si>
+  <si>
+    <t>3.CDN和双线机房相比有何优势？</t>
+  </si>
+  <si>
+    <t>常见的双线机房只能解决网通和电信互相访问慢的问题，其它ISP（譬如教育网，移动网，铁通）互通的问题还是没得到解决。　　</t>
+  </si>
+  <si>
+    <t>而CDN是访问者就近取数据，而CDN的节点遍布各ISP，从而保证了网站到任意ISP的访问速度。另外CDN因为其流量分流到各节点的原理，天然获得抵抗网络攻击的能力。</t>
+  </si>
+  <si>
+    <t>4.CDN使用后，原来的网站是否需要做修改，做什么修改？</t>
+  </si>
+  <si>
+    <t>一般而言，网站无需任何修改即可使用CDN获得加速效果。只是对需要判断访客IP程序，才需要做少量修改。</t>
+  </si>
+  <si>
+    <t>5.为什么我的网站更新后，通过CDN后看到网页还是旧网页，如何解决？　　</t>
+  </si>
+  <si>
+    <t>由于CDN采用各节点缓存的机制，网站的静态网页和图片修改后，如果CDN缓存没有做相应更新，则看到的还是旧的网页。</t>
+  </si>
+  <si>
+    <t>为了解决这个问题，CDN管理面板中提供了URL推送服务，来通知CDN各节点刷新自己的缓存。　　</t>
+  </si>
+  <si>
+    <t>在URL推送地址栏中，输入具体的网址或者图片地址，则各节点中的缓存内容即被统一删除，并且当即生效。　　</t>
+  </si>
+  <si>
+    <t>如果需要推送的网址和图片太多，可以选择目录推送，输入 http://www.kkk.com/news 即可以对网站下news目录下所有网页和图片进行了刷新。</t>
+  </si>
+  <si>
+    <t>6.能不能让CDN不缓存某些即时性要求很高的网页和图片？</t>
+  </si>
+  <si>
+    <t>只需要使用动态页面，asp，php，jsp等动态技术做成的页面不被CDN缓存，无需每次都要刷新。或者采用一个网站两个域名，一个启用CDN，另外一个域名不用CDN，对即时性要求高的页面和图片放在不用CDN的域名下。</t>
+  </si>
+  <si>
+    <t>7.网站新增了不少网页和图片，这些需要使用URL推送吗？　　</t>
+  </si>
+  <si>
+    <t>后来增加的网页和图片，不需要使用URL推送，因为它们本来就不存在缓存中。</t>
+  </si>
+  <si>
+    <r>
+      <t>CDN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网络是在用户和服务器之间增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>层，如何将用户的请求引导到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上获得源服务器的数据，主要是通过接管</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DNS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实现，这就是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CDN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的最基本的原理，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当用户访问加入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CDN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务的网站时，域名解析请求将最终交给全局负载均衡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DNS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行处理。全局负载均衡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DNS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过一组预先定义好的策略，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当然很多细节没有涉及到，比如第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>步，首先向本地的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DNS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器请求。第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>步，内容淘汰机制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TTL)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等。但原理大体如此。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将当时最接近用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户的节点地址提供给用户，使用户能够得到快速的服务。同时，它还与分布在世界各地的所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CDNC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节点保持通信，搜集各节点的通信状态，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确保不将用户的请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分配到不可用的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CDN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节点上，实际上是通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DNS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>做全局负载均衡。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对于普通的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Internet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户来讲，每个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CDN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节点就相当于一个放置在它周围的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WEB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。通过全局负载均衡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DNS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的控制，用户的请求被透明地指向离他最近的节点，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节点中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CDN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器会像网站的原始服务器一样，响应用户的请求。由于它离用户更近，因而响应时间必然更快。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CDN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节点由两部分组成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>负载均衡设备和高速缓存服务器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>负载均衡设备负责每个节点中各个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的负载均衡，保证节点的工作效率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同时，负载均衡设备还负责收集节点与周围环境的信息，保持与全局负载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DNS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的通信，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实现整个系统的负载均衡。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CDN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的管理系统是整个系统能够正常运转的保证。它不仅能对系统中的各个子系统和设备进行实时监控，对各种故障产生相应的告警，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>还可以实时监测到系统中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总的流量和各节点的流量，并保存在系统的数据库中，使网管人员能够方便地进行进一步分析。通过完善的网管系统，用户可以对系统配置进行修改。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>理论上，最简单的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CDN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网络有一个负责全局负载均衡的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DNS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和各节点一台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Cache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，即可运行。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DNS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持根据用户源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址解析不同的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就近访问。为了保证高可用性等，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要监视各节点的流量、健康状况等。一个节点的单台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Cache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>承载数量不够时，才需要多台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Cache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，多台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Cache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工作，才需要负载均衡器，使</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Cache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>群协同工作。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请求结果发给用户。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>由于是第一次访问，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CDN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器会向原</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>站点请求，并缓存内容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户向该</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(CDN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发出请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DNS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>负载均衡系统解析域名，把对用户响应速度最快的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节点返回给用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网站的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DNS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>域名解析器设置了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CNAME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，指向了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>www.web.51cdn.com,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请求指向了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CDN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网络中的智能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DNS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>负载均衡系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户向浏览器输入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>www.web.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这个域名，浏览器第一次发现本地没有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>dns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缓存，则向网站的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DNS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +1635,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +1658,43 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF191919"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF191919"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF191919"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -172,10 +1723,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -289,6 +1852,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="http://img.mp.sohu.com/upload/20170515/d0dad4d4501e4a2e8e14f6244342a762.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C5E8059-4419-40F1-9FB4-B01EC1BEADBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5848350" cy="4867275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -561,8 +2190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A39:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -684,4 +2313,341 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED084AF-B19B-4619-A321-E3F987D526D5}">
+  <dimension ref="A1:A51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="3.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB4629F-51B2-4EE4-BCD3-58B74773A433}">
+  <dimension ref="A29:A55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="3.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="8"/>
+    </row>
+    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7"/>
+    </row>
+    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>